--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -1,34 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B06F3EC-504C-4498-A4D4-9097708B36E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Generator Data" sheetId="1" r:id="rId1"/>
     <sheet name="Yearly Fuel Costs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Generator 1</t>
   </si>
   <si>
-    <t>Generator 2</t>
-  </si>
-  <si>
     <t>Nominal Capacity at upgrade 1</t>
   </si>
   <si>
@@ -48,13 +39,67 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 2</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 3</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 4</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 5</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 6</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 7</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 8</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 9</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 10</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 11</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 12</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 13</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 14</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 15</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 16</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 17</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 18</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 19</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,23 +158,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,67 +449,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>70604.9265075</v>
-      </c>
-      <c r="C2">
-        <v>43435.2000634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>29661.12962580075</v>
-      </c>
-      <c r="C3">
-        <v>13030.56001902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>2966.112962580075</v>
-      </c>
-      <c r="C4">
-        <v>1172.7504017117999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B5">
-        <v>277065.54236800002</v>
-      </c>
-      <c r="C5">
-        <v>23516.467432900001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -517,36 +499,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>150291.0087386785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>150291.0010620206</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Generator 1</t>
   </si>
@@ -48,51 +48,6 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 5</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 6</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 7</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 8</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 9</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 10</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 11</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 12</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 13</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 14</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 15</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 16</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 17</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 18</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 19</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 20</t>
   </si>
 </sst>
 </file>
@@ -466,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>455432.19341</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -474,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>191327.064451541</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -482,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>19132.7064451541</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -490,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3170223.58785</v>
       </c>
     </row>
   </sheetData>
@@ -500,7 +455,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>706126.2457347935</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -524,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>706126.9053339667</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -532,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>706127.4380772213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -540,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>706128.0094528636</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,127 +503,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>706128.4838875127</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Generator 1</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 4</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 5</t>
   </si>
 </sst>
 </file>
@@ -421,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>455432.19341</v>
+        <v>13206.8210333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>191327.064451541</v>
+        <v>5548.18551608933</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19132.7064451541</v>
+        <v>554.818551608933</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -445,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3170223.58785</v>
+        <v>88667.3162596</v>
       </c>
     </row>
   </sheetData>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>706126.2457347935</v>
+        <v>24250.65181510497</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -479,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>706126.9053339667</v>
+        <v>24255.84014186306</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -487,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>706127.4380772213</v>
+        <v>24255.87331289408</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -495,15 +492,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>706128.0094528636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>706128.4838875127</v>
+        <v>24255.9044960758</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -1,34 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B06F3EC-504C-4498-A4D4-9097708B36E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Generator Data" sheetId="1" r:id="rId1"/>
     <sheet name="Yearly Fuel Costs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Generator 1</t>
   </si>
   <si>
-    <t>Generator 2</t>
-  </si>
-  <si>
     <t>Nominal Capacity at upgrade 1</t>
   </si>
   <si>
@@ -48,13 +39,19 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 2</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 3</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,23 +110,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,27 +192,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,24 +226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,67 +401,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>13206.8210333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>70604.9265075</v>
-      </c>
-      <c r="C2">
-        <v>43435.2000634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>5548.18551608933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>29661.12962580075</v>
-      </c>
-      <c r="C3">
-        <v>13030.56001902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>554.818551608933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>2966.112962580075</v>
-      </c>
-      <c r="C4">
-        <v>1172.7504017117999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B5">
-        <v>277065.54236800002</v>
-      </c>
-      <c r="C5">
-        <v>23516.467432900001</v>
+        <v>88667.3162596</v>
       </c>
     </row>
   </sheetData>
@@ -517,36 +451,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>24250.65181510497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>150291.0087386785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>24255.84014186306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>150291.0010620206</v>
+      <c r="B4">
+        <v>24255.87331289408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>24255.9044960758</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13206.8210333</v>
+        <v>13000.7758572</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5548.18551608933</v>
+        <v>5461.62593760972</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>554.818551608933</v>
+        <v>546.162593760972</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>88667.3162596</v>
+        <v>89405.33016490001</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>24250.65181510497</v>
+        <v>24453.58352930021</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>24255.84014186306</v>
+        <v>24457.35045313893</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>24255.87331289408</v>
+        <v>24457.37558412998</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>24255.9044960758</v>
+        <v>24457.40076786133</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13206.8210333</v>
+        <v>13006.3739653</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5548.18551608933</v>
+        <v>5463.977702822529</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>554.818551608933</v>
+        <v>546.397770282253</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>88667.3162596</v>
+        <v>89452.40564519999</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>24250.65181510497</v>
+        <v>24466.48949836018</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>24255.84014186306</v>
+        <v>24470.22568845345</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>24255.87331289408</v>
+        <v>24470.2426119767</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>24255.9044960758</v>
+        <v>24470.25879658613</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13000.7758572</v>
+        <v>12544.9991483</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5461.62593760972</v>
+        <v>5270.154142200829</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>546.162593760972</v>
+        <v>527.015414220083</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>89405.33016490001</v>
+        <v>89073.5169916</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>24453.58352930021</v>
+        <v>24364.1971795696</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>24457.35045313893</v>
+        <v>24366.0841858457</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>24457.37558412998</v>
+        <v>24366.11538123513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>24457.40076786133</v>
+        <v>24366.14749731299</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13006.3739653</v>
+        <v>12006.6984322</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5463.977702822529</v>
+        <v>5044.01401136722</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>546.397770282253</v>
+        <v>504.401401136722</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>89452.40564519999</v>
+        <v>87750.3188301</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>24466.48949836018</v>
+        <v>24002.41646778491</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>24470.22568845345</v>
+        <v>24004.08996193788</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>24470.2426119767</v>
+        <v>24004.0991941295</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>24470.25879658613</v>
+        <v>24004.10736450143</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12544.9991483</v>
+        <v>12948.8666456</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5270.154142200829</v>
+        <v>5439.81887781656</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>527.015414220083</v>
+        <v>543.9818877816559</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>89073.5169916</v>
+        <v>89353.44855279999</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>24364.1971795696</v>
+        <v>24439.53923883097</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>24366.0841858457</v>
+        <v>24443.11044667862</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>24366.11538123513</v>
+        <v>24443.1310154965</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>24366.14749731299</v>
+        <v>24443.15038968634</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Generator 1</t>
   </si>
   <si>
+    <t>Generator 2</t>
+  </si>
+  <si>
     <t>Nominal Capacity at upgrade 1</t>
   </si>
   <si>
@@ -45,6 +48,54 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 4</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 5</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 6</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 7</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 8</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 9</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 10</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 11</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 12</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 13</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 14</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 15</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 16</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 17</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 18</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 19</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 20</t>
   </si>
 </sst>
 </file>
@@ -402,47 +453,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>12948.8666456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>36091.293993</v>
+      </c>
+      <c r="C2">
+        <v>1.65531644012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>5439.81887781656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7218.2587986</v>
+      </c>
+      <c r="C3">
+        <v>1.986379728144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>543.9818877816559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>324.821645937</v>
+      </c>
+      <c r="C4">
+        <v>0.08938708776647999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>89353.44855279999</v>
+        <v>222674.729426</v>
+      </c>
+      <c r="C5">
+        <v>5.17549102034</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +518,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,39 +526,167 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>24439.53923883097</v>
+        <v>35575.04037179392</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>24443.11044667862</v>
+        <v>35575.10697257982</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>24443.1310154965</v>
+        <v>35575.17770987165</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>24443.15038968634</v>
+        <v>35575.25858971571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>35575.34992656275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>35575.45099812694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>35575.56455467194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>35575.69366701386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>35575.83646257433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>35575.99413476851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>35576.16809283406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>35576.36106154061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>35576.57596672527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>35576.81589628436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>35577.08357279628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>35577.38160892459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>35577.71326090474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>35578.08070180986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>35578.48787524875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>35578.93829007111</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Generator 1</t>
   </si>
   <si>
+    <t>Generator 2</t>
+  </si>
+  <si>
     <t>Nominal Capacity at upgrade 1</t>
   </si>
   <si>
@@ -45,6 +48,54 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 4</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 5</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 6</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 7</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 8</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 9</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 10</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 11</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 12</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 13</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 14</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 15</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 16</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 17</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 18</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 19</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 20</t>
   </si>
 </sst>
 </file>
@@ -402,47 +453,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>12006.6984322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>36090.1058986</v>
+      </c>
+      <c r="C2">
+        <v>0.7734556997549999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>5044.01401136722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7218.02117972</v>
+      </c>
+      <c r="C3">
+        <v>0.9281468397059999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>504.401401136722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>721.802117972</v>
+      </c>
+      <c r="C4">
+        <v>0.4176660778676999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>87750.3188301</v>
+        <v>222682.17895</v>
+      </c>
+      <c r="C5">
+        <v>4.40044706213</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +518,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,39 +526,167 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>24002.41646778491</v>
+        <v>35576.02469177476</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>24004.08996193788</v>
+        <v>35576.09666751218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>24004.0991941295</v>
+        <v>35576.17640765515</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>24004.10736450143</v>
+        <v>35576.26828023807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>35576.37178682209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>35576.4867560025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>35576.61588381077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>35576.76149660935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>35576.92414064689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>35577.10183779884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>35577.29656010856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>35577.51278889657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>35577.75446436717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>35578.0257721881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>35578.33069279457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>35578.67413798285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>35579.06005444584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>35579.49298712097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>35579.98074800181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>35580.5291117245</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Generator 1</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
   </si>
   <si>
     <t>Total Fuel Cost at y = 1</t>
@@ -472,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>36090.1058986</v>
+        <v>8790.942075731278</v>
       </c>
       <c r="C2">
-        <v>0.7734556997549999</v>
+        <v>29525.24596429128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -483,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7218.02117972</v>
+        <v>1758.188415146256</v>
       </c>
       <c r="C3">
-        <v>0.9281468397059999</v>
+        <v>35430.29515714954</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -494,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>721.802117972</v>
+        <v>175.8188415146256</v>
       </c>
       <c r="C4">
-        <v>0.4176660778676999</v>
+        <v>15943.63282071729</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -505,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>222682.17895</v>
+        <v>1487.874724116389</v>
       </c>
       <c r="C5">
-        <v>4.40044706213</v>
+        <v>181989.4716638784</v>
       </c>
     </row>
   </sheetData>
@@ -518,175 +524,301 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>35576.02469177476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>56510.433308959</v>
+      </c>
+      <c r="C2">
+        <v>57322.95645973895</v>
+      </c>
+      <c r="D2">
+        <v>57338.93457853518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>35576.09666751218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>15853.74091854797</v>
+      </c>
+      <c r="C3">
+        <v>16206.08520583811</v>
+      </c>
+      <c r="D3">
+        <v>16045.19214973135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>35576.17640765515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>19710.78401711719</v>
+      </c>
+      <c r="C4">
+        <v>20282.15298258444</v>
+      </c>
+      <c r="D4">
+        <v>20174.86708282452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>35576.26828023807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>19712.02197759793</v>
+      </c>
+      <c r="C5">
+        <v>20283.64850470037</v>
+      </c>
+      <c r="D5">
+        <v>20176.42015231224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>35576.37178682209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>19712.0209328087</v>
+      </c>
+      <c r="C6">
+        <v>20283.64773544674</v>
+      </c>
+      <c r="D6">
+        <v>20176.41929728434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>35576.4867560025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>19712.01900160138</v>
+      </c>
+      <c r="C7">
+        <v>20283.64673472915</v>
+      </c>
+      <c r="D7">
+        <v>20176.41814691745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>35576.61588381077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>19717.00063475953</v>
+      </c>
+      <c r="C8">
+        <v>20293.86073296508</v>
+      </c>
+      <c r="D8">
+        <v>20186.84799671984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>35576.76149660935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>23318.43111478852</v>
+      </c>
+      <c r="C9">
+        <v>30513.11793387443</v>
+      </c>
+      <c r="D9">
+        <v>30910.34991614242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>35576.92414064689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>23323.64374316557</v>
+      </c>
+      <c r="C10">
+        <v>30529.51685213767</v>
+      </c>
+      <c r="D10">
+        <v>30926.76921219114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>35577.10183779884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>23323.64867547779</v>
+      </c>
+      <c r="C11">
+        <v>30529.58013233121</v>
+      </c>
+      <c r="D11">
+        <v>30926.83206397928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>35577.29656010856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>23323.64867342769</v>
+      </c>
+      <c r="C12">
+        <v>30529.58023737467</v>
+      </c>
+      <c r="D12">
+        <v>30926.83218309594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>35577.51278889657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>23323.64866437106</v>
+      </c>
+      <c r="C13">
+        <v>30529.58046262053</v>
+      </c>
+      <c r="D13">
+        <v>30926.83251958522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>35577.75446436717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>23323.6711028098</v>
+      </c>
+      <c r="C14">
+        <v>30529.54178586113</v>
+      </c>
+      <c r="D14">
+        <v>30926.80283861519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>35578.0257721881</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>23329.16788216521</v>
+      </c>
+      <c r="C15">
+        <v>30522.84896528797</v>
+      </c>
+      <c r="D15">
+        <v>30919.22890657751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>35578.33069279457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>28788.48053710763</v>
+      </c>
+      <c r="C16">
+        <v>60585.71467842565</v>
+      </c>
+      <c r="D16">
+        <v>61658.74371333478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>35578.67413798285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>28794.60855995311</v>
+      </c>
+      <c r="C17">
+        <v>60593.71292457489</v>
+      </c>
+      <c r="D17">
+        <v>61660.11793323932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>35579.06005444584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>28794.65978351736</v>
+      </c>
+      <c r="C18">
+        <v>60593.71614799982</v>
+      </c>
+      <c r="D18">
+        <v>61660.1166262487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>35579.49298712097</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>28794.67941444388</v>
+      </c>
+      <c r="C19">
+        <v>60593.7195442122</v>
+      </c>
+      <c r="D19">
+        <v>61660.1107792634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>35579.98074800181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>28796.16441569715</v>
+      </c>
+      <c r="C20">
+        <v>60591.4421878303</v>
+      </c>
+      <c r="D20">
+        <v>61659.69359387887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>35580.5291117245</v>
+        <v>28086.82785551389</v>
+      </c>
+      <c r="C21">
+        <v>60309.30305025972</v>
+      </c>
+      <c r="D21">
+        <v>61590.46573820739</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Generator 1</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>Scenario 1</t>
-  </si>
-  <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Scenario 3</t>
   </si>
   <si>
     <t>Total Fuel Cost at y = 1</t>
@@ -478,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8790.942075731278</v>
+        <v>28028.3032253</v>
       </c>
       <c r="C2">
-        <v>29525.24596429128</v>
+        <v>16.150133392</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -489,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1758.188415146256</v>
+        <v>5605.66064506</v>
       </c>
       <c r="C3">
-        <v>35430.29515714954</v>
+        <v>19.3801600704</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -500,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>175.8188415146256</v>
+        <v>560.5660645060001</v>
       </c>
       <c r="C4">
-        <v>15943.63282071729</v>
+        <v>8.72107203168</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -511,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1487.874724116389</v>
+        <v>17797.5633401</v>
       </c>
       <c r="C5">
-        <v>181989.4716638784</v>
+        <v>63.5117403388</v>
       </c>
     </row>
   </sheetData>
@@ -524,301 +518,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>10.26666487699951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>8.713501243434349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>56510.433308959</v>
-      </c>
-      <c r="C2">
-        <v>57322.95645973895</v>
-      </c>
-      <c r="D2">
-        <v>57338.93457853518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>72.62322237708076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>15853.74091854797</v>
-      </c>
-      <c r="C3">
-        <v>16206.08520583811</v>
-      </c>
-      <c r="D3">
-        <v>16045.19214973135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="B5">
+        <v>91.01999848860085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>19710.78401711719</v>
-      </c>
-      <c r="C4">
-        <v>20282.15298258444</v>
-      </c>
-      <c r="D4">
-        <v>20174.86708282452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="B6">
+        <v>90.89915593917038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>19712.02197759793</v>
-      </c>
-      <c r="C5">
-        <v>20283.64850470037</v>
-      </c>
-      <c r="D5">
-        <v>20176.42015231224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B7">
+        <v>92.29260687403114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>19712.0209328087</v>
-      </c>
-      <c r="C6">
-        <v>20283.64773544674</v>
-      </c>
-      <c r="D6">
-        <v>20176.41929728434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="B8">
+        <v>86.06974713480078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>19712.01900160138</v>
-      </c>
-      <c r="C7">
-        <v>20283.64673472915</v>
-      </c>
-      <c r="D7">
-        <v>20176.41814691745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B9">
+        <v>3766.661691524581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>19717.00063475953</v>
-      </c>
-      <c r="C8">
-        <v>20293.86073296508</v>
-      </c>
-      <c r="D8">
-        <v>20186.84799671984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="B10">
+        <v>3732.57922245498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>23318.43111478852</v>
-      </c>
-      <c r="C9">
-        <v>30513.11793387443</v>
-      </c>
-      <c r="D9">
-        <v>30910.34991614242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="B11">
+        <v>3739.642232258679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <v>23323.64374316557</v>
-      </c>
-      <c r="C10">
-        <v>30529.51685213767</v>
-      </c>
-      <c r="D10">
-        <v>30926.76921219114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="B12">
+        <v>3739.627197121625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>23323.64867547779</v>
-      </c>
-      <c r="C11">
-        <v>30529.58013233121</v>
-      </c>
-      <c r="D11">
-        <v>30926.83206397928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="B13">
+        <v>3739.629627440963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>23323.64867342769</v>
-      </c>
-      <c r="C12">
-        <v>30529.58023737467</v>
-      </c>
-      <c r="D12">
-        <v>30926.83218309594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="B14">
+        <v>3740.026234171446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13">
-        <v>23323.64866437106</v>
-      </c>
-      <c r="C13">
-        <v>30529.58046262053</v>
-      </c>
-      <c r="D13">
-        <v>30926.83251958522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="B15">
+        <v>3755.748012861778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
-        <v>23323.6711028098</v>
-      </c>
-      <c r="C14">
-        <v>30529.54178586113</v>
-      </c>
-      <c r="D14">
-        <v>30926.80283861519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B16">
+        <v>21981.41623442561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
-        <v>23329.16788216521</v>
-      </c>
-      <c r="C15">
-        <v>30522.84896528797</v>
-      </c>
-      <c r="D15">
-        <v>30919.22890657751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="B17">
+        <v>22015.05464370237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
-        <v>28788.48053710763</v>
-      </c>
-      <c r="C16">
-        <v>60585.71467842565</v>
-      </c>
-      <c r="D16">
-        <v>61658.74371333478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="B18">
+        <v>22015.3401029741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
-        <v>28794.60855995311</v>
-      </c>
-      <c r="C17">
-        <v>60593.71292457489</v>
-      </c>
-      <c r="D17">
-        <v>61660.11793323932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="B19">
+        <v>22015.31552407677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18">
-        <v>28794.65978351736</v>
-      </c>
-      <c r="C18">
-        <v>60593.71614799982</v>
-      </c>
-      <c r="D18">
-        <v>61660.1166262487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="B20">
+        <v>22015.94663418807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
-        <v>28794.67941444388</v>
-      </c>
-      <c r="C19">
-        <v>60593.7195442122</v>
-      </c>
-      <c r="D19">
-        <v>61660.1107792634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>28796.16441569715</v>
-      </c>
-      <c r="C20">
-        <v>60591.4421878303</v>
-      </c>
-      <c r="D20">
-        <v>61659.69359387887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B21">
-        <v>28086.82785551389</v>
-      </c>
-      <c r="C21">
-        <v>60309.30305025972</v>
-      </c>
-      <c r="D21">
-        <v>61590.46573820739</v>
+        <v>22003.46475807035</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>28028.3032253</v>
+        <v>28062.4080285</v>
       </c>
       <c r="C2">
-        <v>16.150133392</v>
+        <v>0.0553638950717</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5605.66064506</v>
+        <v>5612.4816057</v>
       </c>
       <c r="C3">
-        <v>19.3801600704</v>
+        <v>0.06643667408604</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>560.5660645060001</v>
+        <v>561.24816057</v>
       </c>
       <c r="C4">
-        <v>8.72107203168</v>
+        <v>0.029896503338718</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17797.5633401</v>
+        <v>17824.5813342</v>
       </c>
       <c r="C5">
-        <v>63.5117403388</v>
+        <v>0.171523816216</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>10.26666487699951</v>
+        <v>0.04125488801850326</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>8.713501243434349</v>
+        <v>0.04125193280751012</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>72.62322237708076</v>
+        <v>76.47893717906528</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>91.01999848860085</v>
+        <v>81.92750187927129</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>90.89915593917038</v>
+        <v>81.92750187927129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>92.29260687403114</v>
+        <v>81.92750187927129</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -582,7 +582,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>86.06974713480078</v>
+        <v>100.5919460951342</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -590,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>3766.661691524581</v>
+        <v>3717.077487800779</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -598,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>3732.57922245498</v>
+        <v>3739.768033320368</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -606,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>3739.642232258679</v>
+        <v>3739.768033320368</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -614,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>3739.627197121625</v>
+        <v>3739.768033320368</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>3739.629627440963</v>
+        <v>3739.768033320368</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -630,7 +630,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>3740.026234171446</v>
+        <v>3739.768033320368</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -638,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>3755.748012861778</v>
+        <v>3765.578516434562</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -646,7 +646,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>21981.41623442561</v>
+        <v>21976.74275005401</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -654,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>22015.05464370237</v>
+        <v>22011.83316269384</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -662,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>22015.3401029741</v>
+        <v>22011.83316269384</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -670,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>22015.31552407677</v>
+        <v>22011.83316269384</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -678,7 +678,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>22015.94663418807</v>
+        <v>22011.83316269408</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>22003.46475807035</v>
+        <v>22000.49476444961</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Generator 1</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
   </si>
   <si>
     <t>Total Fuel Cost at y = 1</t>
@@ -472,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>28062.4080285</v>
+        <v>16174.65262790183</v>
       </c>
       <c r="C2">
-        <v>0.0553638950717</v>
+        <v>14315.26359294155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -483,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5612.4816057</v>
+        <v>3234.930525580365</v>
       </c>
       <c r="C3">
-        <v>0.06643667408604</v>
+        <v>17178.31631152986</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -494,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>561.24816057</v>
+        <v>145.5718736511164</v>
       </c>
       <c r="C4">
-        <v>0.029896503338718</v>
+        <v>773.0242340188435</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -505,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17824.5813342</v>
+        <v>3866.630036211245</v>
       </c>
       <c r="C5">
-        <v>0.171523816216</v>
+        <v>18779.41067637956</v>
       </c>
     </row>
   </sheetData>
@@ -518,175 +524,301 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.04125488801850326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>91.70232594052887</v>
+      </c>
+      <c r="C2">
+        <v>89.48259092717483</v>
+      </c>
+      <c r="D2">
+        <v>92.51655577557234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.04125193280751012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>97.96300627841217</v>
+      </c>
+      <c r="C3">
+        <v>96.20901584224822</v>
+      </c>
+      <c r="D3">
+        <v>98.40056475866989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>76.47893717906528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>900.1273218191101</v>
+      </c>
+      <c r="C4">
+        <v>957.9526326995677</v>
+      </c>
+      <c r="D4">
+        <v>963.5867904895179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>81.92750187927129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>906.9593951583397</v>
+      </c>
+      <c r="C5">
+        <v>965.4032486030325</v>
+      </c>
+      <c r="D5">
+        <v>970.4377127684191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>81.92750187927129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>906.9593951583397</v>
+      </c>
+      <c r="C6">
+        <v>965.4032486030325</v>
+      </c>
+      <c r="D6">
+        <v>970.4377127684191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>81.92750187927129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>906.9593951583397</v>
+      </c>
+      <c r="C7">
+        <v>965.4032486030325</v>
+      </c>
+      <c r="D7">
+        <v>970.4377127684191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>100.5919460951342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>908.9276263084536</v>
+      </c>
+      <c r="C8">
+        <v>981.499432721521</v>
+      </c>
+      <c r="D8">
+        <v>988.2922209344072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>3717.077487800779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>2459.523293330211</v>
+      </c>
+      <c r="C9">
+        <v>8352.391862009201</v>
+      </c>
+      <c r="D9">
+        <v>8586.15521053768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>3739.768033320368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>2469.135020133972</v>
+      </c>
+      <c r="C10">
+        <v>8379.902593869365</v>
+      </c>
+      <c r="D10">
+        <v>8615.488685692853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>3739.768033320368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>2469.135020133972</v>
+      </c>
+      <c r="C11">
+        <v>8379.902593869365</v>
+      </c>
+      <c r="D11">
+        <v>8615.488685692853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>3739.768033320368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>2469.135020133972</v>
+      </c>
+      <c r="C12">
+        <v>8379.902593869365</v>
+      </c>
+      <c r="D12">
+        <v>8615.488685692853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>3739.768033320368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>2469.135020133972</v>
+      </c>
+      <c r="C13">
+        <v>8379.902593869365</v>
+      </c>
+      <c r="D13">
+        <v>8615.488685692853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>3739.768033320368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>2469.135020133972</v>
+      </c>
+      <c r="C14">
+        <v>8379.902593869365</v>
+      </c>
+      <c r="D14">
+        <v>8615.488685692853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>3765.578516434562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>2483.214500408374</v>
+      </c>
+      <c r="C15">
+        <v>8406.886920578088</v>
+      </c>
+      <c r="D15">
+        <v>8643.716526038317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>21976.74275005401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>6887.426408521055</v>
+      </c>
+      <c r="C16">
+        <v>24026.30513200592</v>
+      </c>
+      <c r="D16">
+        <v>25546.49599622541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>22011.83316269384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>6897.390094186857</v>
+      </c>
+      <c r="C17">
+        <v>24055.20112532606</v>
+      </c>
+      <c r="D17">
+        <v>25575.25201871309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>22011.83316269384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>6897.390094186863</v>
+      </c>
+      <c r="C18">
+        <v>24055.20112532604</v>
+      </c>
+      <c r="D18">
+        <v>25575.2520187131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>22011.83316269384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>6897.390094186869</v>
+      </c>
+      <c r="C19">
+        <v>24055.20112532604</v>
+      </c>
+      <c r="D19">
+        <v>25575.2520187131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>22011.83316269408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>6897.390094186869</v>
+      </c>
+      <c r="C20">
+        <v>24055.20112532604</v>
+      </c>
+      <c r="D20">
+        <v>25575.2520187131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>22000.49476444961</v>
+        <v>6890.34549172828</v>
+      </c>
+      <c r="C21">
+        <v>24053.76307819227</v>
+      </c>
+      <c r="D21">
+        <v>25572.22307559073</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Generator 1</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Scenario 1</t>
   </si>
   <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Scenario 3</t>
-  </si>
-  <si>
     <t>Total Fuel Cost at y = 1</t>
   </si>
   <si>
@@ -57,51 +51,6 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 5</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 6</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 7</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 8</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 9</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 10</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 11</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 12</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 13</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 14</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 15</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 16</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 17</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 18</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 19</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 20</t>
   </si>
 </sst>
 </file>
@@ -478,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>29026.24624487911</v>
+        <v>17631.7664776</v>
       </c>
       <c r="C2">
-        <v>141.3556439934539</v>
+        <v>21096.8120616</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -489,10 +438,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5805.249248975822</v>
+        <v>3526.35329552</v>
       </c>
       <c r="C3">
-        <v>35.33891099836347</v>
+        <v>5274.2030154</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -500,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>261.236216203912</v>
+        <v>158.6858982984</v>
       </c>
       <c r="C4">
-        <v>1.590250994926356</v>
+        <v>237.339135693</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -511,10 +460,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>22631.12484097886</v>
+        <v>3444.89823074</v>
       </c>
       <c r="C5">
-        <v>196.1772396289959</v>
+        <v>14997.8434712</v>
       </c>
     </row>
   </sheetData>
@@ -524,301 +473,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>9.729350451316355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>317.5917107882166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>8.854369277530392</v>
-      </c>
-      <c r="C2">
-        <v>7.858405638109389</v>
-      </c>
-      <c r="D2">
-        <v>8.489441368866146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>347.7681426409127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>8.76921598932703</v>
-      </c>
-      <c r="C3">
-        <v>10.0886547815735</v>
-      </c>
-      <c r="D3">
-        <v>10.26248805027953</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="B5">
+        <v>8761.081323434903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>324.3095296419691</v>
-      </c>
-      <c r="C4">
-        <v>372.5603447434736</v>
-      </c>
-      <c r="D4">
-        <v>380.1513382287472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>333.9619011154491</v>
-      </c>
-      <c r="C5">
-        <v>384.1695448721078</v>
-      </c>
-      <c r="D5">
-        <v>391.4612330367135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B6">
-        <v>333.9619013195324</v>
-      </c>
-      <c r="C6">
-        <v>384.1695450477036</v>
-      </c>
-      <c r="D6">
-        <v>391.4612332195202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>333.9619013188089</v>
-      </c>
-      <c r="C7">
-        <v>384.1695450440438</v>
-      </c>
-      <c r="D7">
-        <v>391.4612332193709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>339.3041347348325</v>
-      </c>
-      <c r="C8">
-        <v>400.605729981645</v>
-      </c>
-      <c r="D8">
-        <v>409.8594073469295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>1582.411085954557</v>
-      </c>
-      <c r="C9">
-        <v>9130.751914315999</v>
-      </c>
-      <c r="D9">
-        <v>9436.39229568757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>1586.375412052043</v>
-      </c>
-      <c r="C10">
-        <v>9154.193223824444</v>
-      </c>
-      <c r="D10">
-        <v>9460.531101747201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>1586.375412197598</v>
-      </c>
-      <c r="C11">
-        <v>9154.19322388625</v>
-      </c>
-      <c r="D11">
-        <v>9460.531101811466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>1586.375412197584</v>
-      </c>
-      <c r="C12">
-        <v>9154.193223886259</v>
-      </c>
-      <c r="D12">
-        <v>9460.531101811437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>1586.375412197575</v>
-      </c>
-      <c r="C13">
-        <v>9154.193223886239</v>
-      </c>
-      <c r="D13">
-        <v>9460.531101811332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>1586.375412193032</v>
-      </c>
-      <c r="C14">
-        <v>9154.193223869128</v>
-      </c>
-      <c r="D14">
-        <v>9460.531101784392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>1592.485052710116</v>
-      </c>
-      <c r="C15">
-        <v>9186.898331597124</v>
-      </c>
-      <c r="D15">
-        <v>9495.357124362536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>7116.662101195946</v>
-      </c>
-      <c r="C16">
-        <v>27754.8317316574</v>
-      </c>
-      <c r="D16">
-        <v>29597.46961068877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>7127.494424027091</v>
-      </c>
-      <c r="C17">
-        <v>27795.34590285996</v>
-      </c>
-      <c r="D17">
-        <v>29639.87852812783</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>7127.494424089237</v>
-      </c>
-      <c r="C18">
-        <v>27795.34590288509</v>
-      </c>
-      <c r="D18">
-        <v>29639.87852818194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>7127.494424092436</v>
-      </c>
-      <c r="C19">
-        <v>27795.34590288524</v>
-      </c>
-      <c r="D19">
-        <v>29639.87852818156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>7127.494430336312</v>
-      </c>
-      <c r="C20">
-        <v>27795.34590276942</v>
-      </c>
-      <c r="D20">
-        <v>29639.87852747297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>7110.058930908094</v>
-      </c>
-      <c r="C21">
-        <v>27784.05009700868</v>
-      </c>
-      <c r="D21">
-        <v>29627.93876636371</v>
+        <v>26059.74020092283</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>17631.7664776</v>
+        <v>7956.41204699</v>
       </c>
       <c r="C2">
-        <v>21096.8120616</v>
+        <v>29973.2158777</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -438,10 +438,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3526.35329552</v>
+        <v>1591.282409398</v>
       </c>
       <c r="C3">
-        <v>5274.2030154</v>
+        <v>7493.303969425</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -449,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>158.6858982984</v>
+        <v>71.60770842290999</v>
       </c>
       <c r="C4">
-        <v>237.339135693</v>
+        <v>337.198678624125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -460,10 +460,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3444.89823074</v>
+        <v>591.0851266240001</v>
       </c>
       <c r="C5">
-        <v>14997.8434712</v>
+        <v>23359.4267404</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>9.729350451316355</v>
+        <v>75.72664166297506</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -497,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>317.5917107882166</v>
+        <v>960.6693361899218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>347.7681426409127</v>
+        <v>983.9071927690284</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>8761.081323434903</v>
+        <v>13329.86551201737</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -521,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>26059.74020092283</v>
+        <v>29948.96724055574</v>
       </c>
     </row>
   </sheetData>
